--- a/原始数据/零售市场部协同外拓及理财转介业绩报送-9.xlsx
+++ b/原始数据/零售市场部协同外拓及理财转介业绩报送-9.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wesle\Desktop\srcb_daily_report\原始数据\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE62AE7E-31F6-433E-B687-E3368AC18D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="-28920" yWindow="3795" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外拓双算报送" sheetId="2" r:id="rId1"/>
@@ -557,14 +563,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,12 +575,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -588,160 +590,24 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -754,194 +620,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -949,372 +629,196 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -1325,7 +829,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1353,154 +857,40 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1765,29 +1155,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D$1:E$1048576"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3333333333333" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="11.3515625" defaultRowHeight="13.9" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="7" width="11.3333333333333" style="4"/>
-    <col min="8" max="9" width="11.3333333333333" style="5"/>
-    <col min="10" max="11" width="11.3333333333333" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="11.3333333333333" style="4"/>
+    <col min="1" max="7" width="11.3515625" style="4"/>
+    <col min="8" max="9" width="11.3515625" style="5"/>
+    <col min="10" max="11" width="11.3515625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="11.3515625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" spans="1:11">
+    <row r="1" spans="1:11" ht="27.75" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1803,16 +1192,16 @@
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="8" t="s">
@@ -1822,7 +1211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2" s="7">
         <v>45632</v>
       </c>
@@ -1861,7 +1250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A3" s="7">
         <v>45635</v>
       </c>
@@ -1900,7 +1289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A4" s="7">
         <v>45628</v>
       </c>
@@ -1933,7 +1322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A5" s="7">
         <v>45629</v>
       </c>
@@ -1966,7 +1355,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A6" s="7">
         <v>45630</v>
       </c>
@@ -2005,7 +1394,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A7" s="7">
         <v>45630</v>
       </c>
@@ -2044,7 +1433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A8" s="7">
         <v>45631</v>
       </c>
@@ -2077,7 +1466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A9" s="7">
         <v>45632</v>
       </c>
@@ -2116,7 +1505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A10" s="7">
         <v>45635</v>
       </c>
@@ -2149,7 +1538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A11" s="7">
         <v>45636</v>
       </c>
@@ -2182,7 +1571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A12" s="7">
         <v>45636</v>
       </c>
@@ -2215,7 +1604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A13" s="7">
         <v>45636</v>
       </c>
@@ -2254,7 +1643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A14" s="7">
         <v>45637</v>
       </c>
@@ -2293,7 +1682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A15" s="7">
         <v>45637</v>
       </c>
@@ -2332,7 +1721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A16" s="7">
         <v>45638</v>
       </c>
@@ -2371,7 +1760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A17" s="7">
         <v>45638</v>
       </c>
@@ -2404,7 +1793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A18" s="7">
         <v>45638</v>
       </c>
@@ -2443,7 +1832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A19" s="7">
         <v>45639</v>
       </c>
@@ -2476,7 +1865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A20" s="7">
         <v>45639</v>
       </c>
@@ -2515,7 +1904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A21" s="7">
         <v>45639</v>
       </c>
@@ -2548,7 +1937,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A22" s="7">
         <v>45642</v>
       </c>
@@ -2587,7 +1976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A23" s="7">
         <v>45643</v>
       </c>
@@ -2626,7 +2015,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A24" s="7">
         <v>45643</v>
       </c>
@@ -2665,7 +2054,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A25" s="7">
         <v>45644</v>
       </c>
@@ -2704,7 +2093,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A26" s="7">
         <v>45644</v>
       </c>
@@ -2737,7 +2126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A27" s="7">
         <v>45644</v>
       </c>
@@ -2776,7 +2165,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A28" s="7">
         <v>45644</v>
       </c>
@@ -2809,7 +2198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A29" s="7">
         <v>45645</v>
       </c>
@@ -2847,7 +2236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A30" s="7">
         <v>45645</v>
       </c>
@@ -2880,7 +2269,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A31" s="7">
         <v>45645</v>
       </c>
@@ -2919,7 +2308,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A32" s="7">
         <v>45646</v>
       </c>
@@ -2952,7 +2341,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A33" s="7">
         <v>45646</v>
       </c>
@@ -2985,7 +2374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A34" s="7">
         <v>45649</v>
       </c>
@@ -3018,7 +2407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A35" s="7">
         <v>45650</v>
       </c>
@@ -3057,7 +2446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A36" s="7">
         <v>45652</v>
       </c>
@@ -3096,7 +2485,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A37" s="7">
         <v>45652</v>
       </c>
@@ -3135,7 +2524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="8:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.5">
       <c r="H38" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3153,7 +2542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="8:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.5">
       <c r="H39" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3171,7 +2560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="8:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.5">
       <c r="H40" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3189,7 +2578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="8:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.5">
       <c r="H41" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3207,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="8:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.5">
       <c r="H42" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3225,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="8:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.5">
       <c r="H43" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3243,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="8:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.5">
       <c r="H44" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3261,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="8:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.5">
       <c r="H45" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3279,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="8:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.5">
       <c r="H46" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3297,7 +2686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="8:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.5">
       <c r="H47" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3315,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="8:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.5">
       <c r="H48" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3329,7 +2718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="9:11">
+    <row r="49" spans="9:11" x14ac:dyDescent="0.5">
       <c r="I49" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3339,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="11:11">
+    <row r="50" spans="9:11" x14ac:dyDescent="0.5">
       <c r="K50" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3347,28 +2736,23 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatCells="0" insertHyperlinks="0" autoFilter="0"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.9" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="1"/>
-    <col min="2" max="3" width="11" style="1"/>
-    <col min="4" max="16384" width="11" style="1"/>
+    <col min="1" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3385,7 +2769,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -3402,7 +2786,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
@@ -3419,7 +2803,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -3436,7 +2820,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
@@ -3453,7 +2837,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -3470,7 +2854,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -3487,7 +2871,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -3504,7 +2888,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -3521,7 +2905,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -3541,7 +2925,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -3558,7 +2942,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -3575,7 +2959,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
@@ -3595,7 +2979,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -3612,7 +2996,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -3629,7 +3013,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -3646,7 +3030,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -3663,7 +3047,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -3680,7 +3064,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -3697,7 +3081,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -3714,7 +3098,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
         <v>93</v>
       </c>
@@ -3731,7 +3115,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
@@ -3748,7 +3132,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>101</v>
       </c>
@@ -3765,7 +3149,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
@@ -3782,7 +3166,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>101</v>
       </c>
@@ -3799,7 +3183,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A26" s="1" t="s">
         <v>93</v>
       </c>
@@ -3816,7 +3200,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
         <v>93</v>
       </c>
@@ -3833,7 +3217,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>114</v>
       </c>
@@ -3850,7 +3234,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
         <v>114</v>
       </c>
@@ -3867,7 +3251,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
         <v>114</v>
       </c>
@@ -3884,7 +3268,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="s">
         <v>114</v>
       </c>
@@ -3901,7 +3285,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
         <v>128</v>
       </c>
@@ -3918,7 +3302,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A33" s="1" t="s">
         <v>128</v>
       </c>
@@ -3935,7 +3319,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
@@ -3952,7 +3336,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
@@ -3969,7 +3353,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
         <v>28</v>
       </c>
@@ -3986,7 +3370,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
@@ -4000,7 +3384,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
@@ -4017,7 +3401,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39" s="1" t="s">
         <v>93</v>
       </c>
@@ -4034,7 +3418,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -4051,7 +3435,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A41" s="1" t="s">
         <v>146</v>
       </c>
@@ -4068,7 +3452,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" s="1" t="s">
         <v>146</v>
       </c>
@@ -4085,7 +3469,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A43" s="1" t="s">
         <v>33</v>
       </c>
@@ -4102,7 +3486,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A44" s="1" t="s">
         <v>17</v>
       </c>
@@ -4119,7 +3503,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A45" s="1" t="s">
         <v>17</v>
       </c>
@@ -4136,7 +3520,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A46" s="1" t="s">
         <v>17</v>
       </c>
@@ -4153,7 +3537,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A47" s="1" t="s">
         <v>114</v>
       </c>
@@ -4170,7 +3554,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48" s="1" t="s">
         <v>114</v>
       </c>
@@ -4187,7 +3571,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A49" s="1" t="s">
         <v>114</v>
       </c>
@@ -4204,7 +3588,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A50" s="1" t="s">
         <v>114</v>
       </c>
@@ -4221,7 +3605,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A51" s="1" t="s">
         <v>114</v>
       </c>
@@ -4238,7 +3622,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A52" s="1" t="s">
         <v>114</v>
       </c>
@@ -4255,7 +3639,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A53" s="1" t="s">
         <v>163</v>
       </c>
@@ -4272,7 +3656,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A54" s="1" t="s">
         <v>163</v>
       </c>
@@ -4289,7 +3673,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A55" s="1" t="s">
         <v>33</v>
       </c>
@@ -4307,12 +3691,10 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:E55" etc:filterBottomFollowUsedRange="0">
-    <extLst/>
-  </autoFilter>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A1:E55" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -4324,6 +3706,13 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="2" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0" topPadding="30" bottomPadding="30" leftPadding="15" rightPadding="15">
@@ -4650,13 +4039,6 @@
 </woProps>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
@@ -4667,7 +4049,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4676,7 +4058,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
